--- a/data/datasets/goal_directedness/datasets_excel/summaries.xlsx
+++ b/data/datasets/goal_directedness/datasets_excel/summaries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>reaction_time_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>reaction_time_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>sense_prob</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sense_std</t>
         </is>
@@ -483,8 +493,14 @@
       <c r="E2" t="n">
         <v>0.4720681948440593</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>6961.728654970305</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5713.793392448776</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -504,8 +520,14 @@
       <c r="E3" t="n">
         <v>0.1226042994837613</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>6298.194736846031</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5427.359169771291</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,8 +547,14 @@
       <c r="E4" t="n">
         <v>0.4102142291703689</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>6828.304970761465</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5697.202960839226</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -546,8 +574,14 @@
       <c r="E5" t="n">
         <v>0.4595356454178547</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>6900.138011695612</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6186.931049049631</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -567,8 +601,14 @@
       <c r="E6" t="n">
         <v>0.3947835010391922</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>6100.379532162278</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4431.633812121929</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -588,8 +628,14 @@
       <c r="E7" t="n">
         <v>0.4453175014465909</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>6643.029239762585</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4702.885530251628</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -609,8 +655,14 @@
       <c r="E8" t="n">
         <v>0.2509529350904936</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>6492.333479531492</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4927.660794925902</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -630,8 +682,14 @@
       <c r="E9" t="n">
         <v>0.2214416640117514</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>6248.491959062955</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4516.48993135667</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -651,8 +709,14 @@
       <c r="E10" t="n">
         <v>0.4835421331882083</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>6840.085233916235</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5284.412676929127</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -672,8 +736,14 @@
       <c r="E11" t="n">
         <v>0.4703621375986757</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>6352.495760235419</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4516.43324066303</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
